--- a/biology/Médecine/Wilhelm_His/Wilhelm_His.xlsx
+++ b/biology/Médecine/Wilhelm_His/Wilhelm_His.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm His, né le 9 juillet 1831 à Bâle et mort le 1er mai 1904 à Leipzig, est un médecin suisse, professeur de physiologie et d'anatomie à Bâle puis à Leipzig. Il a mis au point un microtome en 1866 permettant de mesurer avec précision l'épaisseur des coupes histologiques. Il est à l'origine d'importantes contributions en embryologie humaine. Il a vivement attaqué les théories du développement embryonnaire de Haeckel. Il est l'auteur d'une nomenclature anatomique.
 </t>
@@ -511,7 +523,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(de) Beiträge zur normalen und pathologischen histologie der cornea, Schweighauser'sche sorteimentsbuchhandlung (Basel), 1856, Texte intégral.
 (de) Über ein perivasculäres Canalsytem in den nervösen Centralorganen und über dessen Beziehungen zum Lymphsystem, W. Engelmann (Leipzig), 1865, Texte intégral.
